--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_28.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_28.xlsx
@@ -508,442 +508,442 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_4</t>
+          <t>model_1_28_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998936053567585</v>
+        <v>0.935435357872958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8282323167577903</v>
+        <v>0.7499242796477359</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8219487123651392</v>
+        <v>0.6563359711294798</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996732623038211</v>
+        <v>0.9209668548540325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004428705428925697</v>
+        <v>0.2687520465252625</v>
       </c>
       <c r="G2" t="n">
-        <v>1.148611288758113</v>
+        <v>1.672257493488402</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6368791318630593</v>
+        <v>1.229266304484535</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004807816292245118</v>
+        <v>0.2164114953755851</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05739112957979114</v>
+        <v>1.469881311685681</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02104448960874484</v>
+        <v>0.5184130076736718</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006809257167454</v>
+        <v>0.9120821894440279</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02137591928331082</v>
+        <v>0.5265774943216472</v>
       </c>
       <c r="N2" t="n">
-        <v>145.4444661177192</v>
+        <v>36.62793216918308</v>
       </c>
       <c r="O2" t="n">
-        <v>286.7796386609356</v>
+        <v>73.59251575740889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_2</t>
+          <t>model_1_28_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998752462542823</v>
+        <v>0.9355667084800763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.828205945315404</v>
+        <v>0.7498410010243626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8227075053904952</v>
+        <v>0.6554451619764254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996817390539005</v>
+        <v>0.9199129755134647</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005192907970798374</v>
+        <v>0.2682052961164874</v>
       </c>
       <c r="G3" t="n">
-        <v>1.148787634714779</v>
+        <v>1.672814378026362</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6341649732087087</v>
+        <v>1.232452677172928</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004683084259139893</v>
+        <v>0.2192972669542875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06270396445984917</v>
+        <v>1.465359361141416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02278795289357597</v>
+        <v>0.5178854082868983</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007984239725936</v>
+        <v>0.9122610498452103</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02314684037205415</v>
+        <v>0.526041585771938</v>
       </c>
       <c r="N3" t="n">
-        <v>145.1260930581013</v>
+        <v>36.63200512287466</v>
       </c>
       <c r="O3" t="n">
-        <v>286.4612656013177</v>
+        <v>73.59658871110048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_5</t>
+          <t>model_1_28_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998961322386125</v>
+        <v>0.935606133600525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8281898059837568</v>
+        <v>0.7498287366309484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8218343384713305</v>
+        <v>0.6551507380038001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996770260670613</v>
+        <v>0.9195541318011847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004323523297157802</v>
+        <v>0.2680411880000937</v>
       </c>
       <c r="G4" t="n">
-        <v>1.148895558499819</v>
+        <v>1.672896390081596</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6372882406494342</v>
+        <v>1.233505814651326</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004752434001073241</v>
+        <v>0.2202798661439973</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05595661915132948</v>
+        <v>1.465370330873803</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02079308369905196</v>
+        <v>0.5177269434751235</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006647536728799</v>
+        <v>0.9123147351156086</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02112055398185398</v>
+        <v>0.5258806252977845</v>
       </c>
       <c r="N4" t="n">
-        <v>145.4925394481548</v>
+        <v>36.63322924742467</v>
       </c>
       <c r="O4" t="n">
-        <v>286.8277119913712</v>
+        <v>73.5978128356505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_6</t>
+          <t>model_1_28_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998971210477303</v>
+        <v>0.9348379095549473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8281517003421772</v>
+        <v>0.749662285392412</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8217214927001077</v>
+        <v>0.659379143400228</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996755329296216</v>
+        <v>0.9241838139098304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004282363853647985</v>
+        <v>0.2712389410989599</v>
       </c>
       <c r="G5" t="n">
-        <v>1.149150371100522</v>
+        <v>1.674009450280125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6376918834299238</v>
+        <v>1.218381053725336</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004774404929414398</v>
+        <v>0.2076026985278643</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05590008046785382</v>
+        <v>1.490747791893498</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02069387313590181</v>
+        <v>0.520806049407032</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00658425294526</v>
+        <v>0.9112686427982261</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0210197809515084</v>
+        <v>0.5290082240701438</v>
       </c>
       <c r="N5" t="n">
-        <v>145.511670425182</v>
+        <v>36.60951029020135</v>
       </c>
       <c r="O5" t="n">
-        <v>286.8468429683984</v>
+        <v>73.57409387842718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_7</t>
+          <t>model_1_28_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999050890799682</v>
+        <v>0.9349098540938773</v>
       </c>
       <c r="C6" t="n">
-        <v>0.828116757540152</v>
+        <v>0.7496411266808533</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8214040128983245</v>
+        <v>0.6590705460227489</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995759545209647</v>
+        <v>0.9238861631433793</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003950692384532674</v>
+        <v>0.2709394700349723</v>
       </c>
       <c r="G6" t="n">
-        <v>1.149384033778561</v>
+        <v>1.674150938681746</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6388274902723661</v>
+        <v>1.219484888651074</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006239661926374714</v>
+        <v>0.208417736919015</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05266995087629031</v>
+        <v>1.488580767354737</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01987634872035776</v>
+        <v>0.5205184627224785</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006074298882034</v>
+        <v>0.9113666098299605</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02018938134364413</v>
+        <v>0.5287161081827898</v>
       </c>
       <c r="N6" t="n">
-        <v>145.6728990424014</v>
+        <v>36.61171968171007</v>
       </c>
       <c r="O6" t="n">
-        <v>287.0080715856178</v>
+        <v>73.57630326993589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_3</t>
+          <t>model_1_28_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998931717980927</v>
+        <v>0.935643450813202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.828116595667324</v>
+        <v>0.7493489828574538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8219943673784122</v>
+        <v>0.6548578323837142</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996919407584481</v>
+        <v>0.919191909870272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004446752424137933</v>
+        <v>0.2678858541060744</v>
       </c>
       <c r="G7" t="n">
-        <v>1.149385116222907</v>
+        <v>1.676104505774017</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6367158265278119</v>
+        <v>1.23455352107073</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004532970201573814</v>
+        <v>0.2212717156975217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05872617117181297</v>
+        <v>1.465378715426109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02108732421180538</v>
+        <v>0.5175769064651884</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006837004922069</v>
+        <v>0.9123655500435091</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02141942848855067</v>
+        <v>0.5257282253549248</v>
       </c>
       <c r="N7" t="n">
-        <v>145.4363326691093</v>
+        <v>36.63438861342911</v>
       </c>
       <c r="O7" t="n">
-        <v>286.7715052123257</v>
+        <v>73.59897220165493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_1</t>
+          <t>model_1_28_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998652280621519</v>
+        <v>0.9356787470877855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8281115441644933</v>
+        <v>0.7493211916498708</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8230605874101184</v>
+        <v>0.6545660956067861</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996791939789923</v>
+        <v>0.9188265128311597</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005609917892761868</v>
+        <v>0.2677389324208215</v>
       </c>
       <c r="G8" t="n">
-        <v>1.149418895645596</v>
+        <v>1.676290345707091</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6329020192973883</v>
+        <v>1.235597046605931</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004720534032310967</v>
+        <v>0.222272259450324</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06361804030790651</v>
+        <v>1.465738830248701</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02368526523550426</v>
+        <v>0.5174349547728888</v>
       </c>
       <c r="L8" t="n">
-        <v>1.008625404022276</v>
+        <v>0.912413613055708</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02405828448638455</v>
+        <v>0.5255840380653712</v>
       </c>
       <c r="N8" t="n">
-        <v>144.97160857684</v>
+        <v>36.63548581201016</v>
       </c>
       <c r="O8" t="n">
-        <v>286.3067811200564</v>
+        <v>73.60006940023598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_8</t>
+          <t>model_1_28_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999132624591398</v>
+        <v>0.9357120525981563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8280901897662554</v>
+        <v>0.7492948837812761</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8211892124745517</v>
+        <v>0.6542761212461993</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994732670514471</v>
+        <v>0.9184580524751007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003610473294480147</v>
+        <v>0.2676002973447518</v>
       </c>
       <c r="G9" t="n">
-        <v>1.149561692604941</v>
+        <v>1.67646626654552</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6395958189333574</v>
+        <v>1.236634268080071</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007750667527288204</v>
+        <v>0.2232811912914403</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04826972167439588</v>
+        <v>1.466117546117597</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01900124547096886</v>
+        <v>0.5173009736553293</v>
       </c>
       <c r="L9" t="n">
-        <v>1.005551202615052</v>
+        <v>0.9124589652400426</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01930049609285967</v>
+        <v>0.5254479468791422</v>
       </c>
       <c r="N9" t="n">
-        <v>145.8530030034418</v>
+        <v>36.6365216791498</v>
       </c>
       <c r="O9" t="n">
-        <v>287.1881755466582</v>
+        <v>73.60110526737562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_28_0</t>
+          <t>model_1_28_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998643319841596</v>
+        <v>0.9357434599365578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8280703144474399</v>
+        <v>0.7492663562054804</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8230586294834543</v>
+        <v>0.6539875457179357</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996857907674447</v>
+        <v>0.9180866197004584</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005647217378422097</v>
+        <v>0.2674695634601788</v>
       </c>
       <c r="G10" t="n">
-        <v>1.149694598953377</v>
+        <v>1.676657030576223</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6329090226875387</v>
+        <v>1.237666486012099</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004623464892848486</v>
+        <v>0.2242982623195943</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06384151863542234</v>
+        <v>1.466489065836915</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02376387463866551</v>
+        <v>0.5171745966887573</v>
       </c>
       <c r="L10" t="n">
-        <v>1.008682753013787</v>
+        <v>0.9125017326795681</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02413813190906501</v>
+        <v>0.5253195796016772</v>
       </c>
       <c r="N10" t="n">
-        <v>144.9583548950596</v>
+        <v>36.63749900115391</v>
       </c>
       <c r="O10" t="n">
-        <v>286.293527438276</v>
+        <v>73.60208258937972</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999914563017175</v>
+        <v>0.9357729397398324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8280665877696726</v>
+        <v>0.7492326767643027</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8211650259195147</v>
+        <v>0.653700342201164</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9994174820742031</v>
+        <v>0.917712319023092</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003556337219061014</v>
+        <v>0.2673468529920306</v>
       </c>
       <c r="G11" t="n">
-        <v>1.149719519264768</v>
+        <v>1.676882245154458</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6396823328383077</v>
+        <v>1.238693796338575</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008571521458723878</v>
+        <v>0.2253231863455754</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04785646451491569</v>
+        <v>1.466856622985735</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01885825341610674</v>
+        <v>0.5170559476420619</v>
       </c>
       <c r="L11" t="n">
-        <v>1.005467966900802</v>
+        <v>0.9125418753904101</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01915525205607308</v>
+        <v>0.5251990619511019</v>
       </c>
       <c r="N11" t="n">
-        <v>145.8832184556273</v>
+        <v>36.63841677754615</v>
       </c>
       <c r="O11" t="n">
-        <v>287.2183909988437</v>
+        <v>73.60300036577198</v>
       </c>
     </row>
   </sheetData>
